--- a/Project requirements.xlsx
+++ b/Project requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="161">
   <si>
     <t xml:space="preserve">As a </t>
   </si>
@@ -81,6 +81,9 @@
     </r>
   </si>
   <si>
+    <t>Abdelhamid Sameh Abdelhamid</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -431,24 +434,30 @@
     <t>receive an email notification if a gym session I registered to attend was cancelled or edited</t>
   </si>
   <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>done</t>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tested</t>
   </si>
   <si>
     <t xml:space="preserve"> Ali Ussama Youssef</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
     <t>Ali Ussama Youssef</t>
   </si>
   <si>
     <t>Ahmed Mohamed Elsayed</t>
   </si>
   <si>
-    <t>Abdelhamid Sameh Abdelhamid</t>
-  </si>
-  <si>
     <t>Yehia Wael Raafat</t>
   </si>
   <si>
@@ -456,6 +465,9 @@
   </si>
   <si>
     <t>Ahmed Khalid Mohamed</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>NOTE: UI AND UX GRADING WILL BE SUBJECTIVE (BASED ON OPINION OF ASSIGNED PRODUCT MANAGER)</t>
@@ -601,12 +613,54 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF980000"/>
+        <bgColor rgb="FF980000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3FF9F"/>
+        <bgColor rgb="FFA3FF9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -655,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -694,23 +748,53 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -719,7 +803,7 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -741,7 +825,48 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1136,9 +1261,8 @@
       <c r="F5" s="9">
         <v>2.0</v>
       </c>
-      <c r="G5" s="9" t="str">
-        <f>IF(ISNUMBER(MATCH(A5, 'Sprint 1'!A:A, 0)), VLOOKUP(A5, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A5, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v>Ali Ussama Youssef</v>
+      <c r="G5" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1164,10 +1288,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9">
@@ -1204,13 +1328,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="9">
         <v>3.0</v>
@@ -1246,10 +1370,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9">
@@ -1286,10 +1410,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9">
@@ -1326,13 +1450,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="9">
         <v>3.0</v>
@@ -1342,7 +1466,7 @@
       </c>
       <c r="G10" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A10, 'Sprint 1'!A:A, 0)), VLOOKUP(A10, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A10, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v>Yehia Wael Raafat</v>
+        <v>Ali Ussama Youssef</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1368,10 +1492,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
@@ -1408,13 +1532,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="9">
         <v>3.0</v>
@@ -1450,10 +1574,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9">
@@ -1490,10 +1614,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
@@ -1530,10 +1654,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
@@ -1570,10 +1694,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
@@ -1610,10 +1734,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
@@ -1650,10 +1774,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
@@ -1690,10 +1814,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
@@ -1730,10 +1854,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
@@ -1770,10 +1894,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9">
@@ -1810,10 +1934,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9">
@@ -1853,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="9">
@@ -1893,7 +2017,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="9">
@@ -1933,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9">
@@ -1973,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9">
@@ -2013,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9">
@@ -2053,39 +2177,39 @@
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="14">
+        <v>48</v>
+      </c>
+      <c r="E28" s="15">
         <v>4.0</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="15">
         <v>1.0</v>
       </c>
       <c r="G28" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A28, 'Sprint 1'!A:A, 0)), VLOOKUP(A28, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A28, 'Sprint 2'!A:G, 7, FALSE))</f>
         <v>Yehia Wael Raafat</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="6">
@@ -2095,10 +2219,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="9">
         <v>4.0</v>
@@ -2137,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9">
@@ -2177,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="9">
@@ -2214,10 +2338,10 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="4">
@@ -2236,13 +2360,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4">
         <v>2.0</v>
@@ -2260,10 +2384,10 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="4">
@@ -2282,13 +2406,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E35" s="4">
         <v>2.0</v>
@@ -2306,10 +2430,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="4">
@@ -2328,10 +2452,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="4">
@@ -2350,10 +2474,10 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="4">
@@ -2372,10 +2496,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="4">
@@ -2394,10 +2518,10 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4">
@@ -2416,10 +2540,10 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="4">
@@ -2438,10 +2562,10 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="4">
@@ -2460,10 +2584,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="4">
@@ -2482,10 +2606,10 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="4">
@@ -2504,10 +2628,10 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4">
@@ -2526,52 +2650,52 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="F46" s="14">
+        <v>73</v>
+      </c>
+      <c r="E46" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="15">
         <v>1.0</v>
       </c>
       <c r="G46" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A46, 'Sprint 1'!A:A, 0)), VLOOKUP(A46, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A46, 'Sprint 2'!A:G, 7, FALSE))</f>
         <v>Ahmed Hamdy Mostafa</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="6">
         <v>46.0</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="4">
@@ -2590,13 +2714,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="4">
         <v>2.0</v>
@@ -2614,13 +2738,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E49" s="4">
         <v>2.0</v>
@@ -2638,10 +2762,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="4">
@@ -2660,13 +2784,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" s="4">
         <v>2.0</v>
@@ -2684,10 +2808,10 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="4">
@@ -2698,7 +2822,7 @@
       </c>
       <c r="G52" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A52, 'Sprint 1'!A:A, 0)), VLOOKUP(A52, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A52, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -2706,10 +2830,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="4">
@@ -2728,10 +2852,10 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="4">
@@ -2750,10 +2874,10 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="4">
@@ -2772,10 +2896,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="4">
@@ -2794,10 +2918,10 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="4">
@@ -2816,10 +2940,10 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="4">
@@ -2838,10 +2962,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="4">
@@ -2863,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4">
@@ -2885,10 +3009,10 @@
         <v>9</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="4">
         <v>2.0</v>
@@ -2909,10 +3033,10 @@
         <v>9</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="4">
         <v>2.0</v>
@@ -2933,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="4">
@@ -2955,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="4">
@@ -2977,10 +3101,10 @@
         <v>9</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65" s="4">
         <v>2.0</v>
@@ -3001,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="4">
@@ -3023,7 +3147,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="4">
@@ -3034,7 +3158,7 @@
       </c>
       <c r="G67" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A67, 'Sprint 1'!A:A, 0)), VLOOKUP(A67, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A67, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
@@ -3045,10 +3169,10 @@
         <v>9</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E68" s="4">
         <v>2.0</v>
@@ -3069,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="4">
@@ -3091,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="4">
@@ -3113,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="4">
@@ -3135,7 +3259,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="4">
@@ -3154,10 +3278,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="4">
@@ -3179,7 +3303,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="4">
@@ -3198,10 +3322,10 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="4">
@@ -3220,10 +3344,10 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="4">
@@ -3242,10 +3366,10 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="4">
@@ -3264,10 +3388,10 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="4">
@@ -3289,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="4">
@@ -3311,10 +3435,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="4">
         <v>2.0</v>
@@ -3332,10 +3456,10 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="4">
@@ -3357,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="4">
@@ -3376,10 +3500,10 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="4">
@@ -3401,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="4">
@@ -3420,10 +3544,10 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="4">
@@ -3442,10 +3566,10 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="4">
@@ -3464,13 +3588,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E87" s="4">
         <v>2.0</v>
@@ -3491,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="4">
@@ -5440,6 +5564,8 @@
     <col customWidth="1" min="3" max="3" width="270.0"/>
     <col customWidth="1" min="4" max="4" width="152.29"/>
     <col customWidth="1" min="7" max="7" width="28.43"/>
+    <col customWidth="1" min="9" max="9" width="36.86"/>
+    <col customWidth="1" min="10" max="10" width="12.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5459,987 +5585,1241 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(FILTER('Functional Requirements'!A:F, 'Functional Requirements'!F:F=1), ""No Sprint 1 items"")
 "),1.0)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="str">
+      <c r="B2" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sign up with my email, password, First name, Last name and student/staff id")</f>
         <v>sign up with my email, password, First name, Last name and student/staff id</v>
       </c>
-      <c r="D2" s="15" t="str">
+      <c r="D2" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Eveyone should use their GUC email while signing up 
 Admins and Event offices donnot sign up")</f>
         <v>Eveyone should use their GUC email while signing up 
 Admins and Event offices donnot sign up</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.5)</f>
         <v>2.5</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>128</v>
+      <c r="G2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sign up with an email, password, company name")</f>
         <v>sign up with an email, password, company name</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>129</v>
+      <c r="G3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15">
+      <c r="A4" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="str">
+      <c r="B4" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"insert the correct role for each of Staff/ TA/ Professor after receiving their request to register and then sends a verification mail")</f>
         <v>insert the correct role for each of Staff/ TA/ Professor after receiving their request to register and then sends a verification mail</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>130</v>
+      <c r="G4" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15">
+      <c r="A5" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="str">
+      <c r="B5" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Staff/ TA/ Professor")</f>
         <v>Staff/ TA/ Professor</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a verification email after the admin verifies their role")</f>
         <v>receive a verification email after the admin verifies their role</v>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The verification mail should contain a verification link that automatically redirects me to the login page
 If I did not click on the link I shouldn't be verified, hence the login should fail")</f>
         <v>The verification mail should contain a verification link that automatically redirects me to the login page
 If I did not click on the link I shouldn't be verified, hence the login should fail</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>130</v>
+      <c r="G5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15">
+      <c r="A6" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="str">
+      <c r="B6" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create other admin/Event Office accounts including the admin name, email and password")</f>
         <v>create other admin/Event Office accounts including the admin name, email and password</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>131</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="15">
+      <c r="A7" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"delete other admin/Event Office accounts")</f>
         <v>delete other admin/Event Office accounts</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>131</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
         <v>9</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"login with my email and password")</f>
         <v>login with my email and password</v>
       </c>
-      <c r="D8" s="15" t="str">
+      <c r="D8" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Eveyone should use their GUC email except Companies and Vendors")</f>
         <v>Eveyone should use their GUC email except Companies and Vendors</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15">
+      <c r="A9" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"logout from my account successfully")</f>
         <v>logout from my account successfully</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15">
+      <c r="A10" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
         <v>11</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view all availabe events that are coming up and all their details including the vendors that will participate (for bazaars and booths)")</f>
         <v>view all availabe events that are coming up and all their details including the vendors that will participate (for bazaars and booths)</v>
       </c>
-      <c r="D10" s="15" t="str">
+      <c r="D10" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events are workshops, trips, bazaars, booths in platform, conferences")</f>
         <v>Events are workshops, trips, bazaars, booths in platform, conferences</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15">
+      <c r="A11" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
         <v>12</v>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"search the events by a specific name(Professor name/Event name) or type")</f>
         <v>search the events by a specific name(Professor name/Event name) or type</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15">
+      <c r="A12" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of all users along with their details and status (active/blocked)")</f>
         <v>view a list of all users along with their details and status (active/blocked)</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>130</v>
+      <c r="G12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15">
+      <c r="A13" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
         <v>24</v>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"register for a workshop/trip using name, mail, student/staff id")</f>
         <v>register for a workshop/trip using name, mail, student/staff id</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15">
+      <c r="A14" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
         <v>27</v>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of my registered events")</f>
         <v>view a list of my registered events</v>
       </c>
-      <c r="D14" s="15" t="str">
+      <c r="D14" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Upcoming and past events")</f>
         <v>Upcoming and past events</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15">
+      <c r="A15" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
         <v>31</v>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create bazaars by adding the bazaar name, start and end date and time, location, short description and registration deadline")</f>
         <v>create bazaars by adding the bazaar name, start and end date and time, location, short description and registration deadline</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>133</v>
+      <c r="G15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15">
+      <c r="A16" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
         <v>32</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"edit any of the bazaar details entered")</f>
         <v>edit any of the bazaar details entered</v>
       </c>
-      <c r="D16" s="15" t="str">
+      <c r="D16" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Only if the bazar hasn't started yet")</f>
         <v>Only if the bazar hasn't started yet</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>133</v>
+      <c r="G16" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15">
+      <c r="A17" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
         <v>33</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create trips by adding the trip name, location, price, start and end date and time, short description, capacity, registeration deadline")</f>
         <v>create trips by adding the trip name, location, price, start and end date and time, short description, capacity, registeration deadline</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>133</v>
+      <c r="G17" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15">
+      <c r="A18" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
         <v>34</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"edit any of the trip details")</f>
         <v>edit any of the trip details</v>
       </c>
-      <c r="D18" s="15" t="str">
+      <c r="D18" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Only if trip start date hasn't passed yet")</f>
         <v>Only if trip start date hasn't passed yet</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>133</v>
+      <c r="G18" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15">
+      <c r="A19" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
         <v>35</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Professor")</f>
         <v> Professor</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create workshops by adding the workshop name, location (GUC Cairo or GUC Berlin), start and end dates and times, short description, full agenda, faculty responsible (MET, IET, etc..), professor(s) participating, required budget, funding source (external o"&amp;"r GUC), extra required resources, capacity, registeration deadline")</f>
         <v>create workshops by adding the workshop name, location (GUC Cairo or GUC Berlin), start and end dates and times, short description, full agenda, faculty responsible (MET, IET, etc..), professor(s) participating, required budget, funding source (external or GUC), extra required resources, capacity, registeration deadline</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>130</v>
+      <c r="G19" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15">
+      <c r="A20" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
         <v>36</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"edit any of the workshop details entered")</f>
         <v>edit any of the workshop details entered</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>130</v>
+      <c r="G20" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15">
+      <c r="A21" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of all workshops that i created ")</f>
         <v>view a list of all workshops that i created </v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>130</v>
+      <c r="G21" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
         <v>40</v>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"accept and publish workshop created by a professor ")</f>
         <v>accept and publish workshop created by a professor </v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>129</v>
+      <c r="G22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15">
+      <c r="A23" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
         <v>41</v>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"reject workshop ")</f>
         <v>reject workshop </v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>129</v>
+      <c r="G23" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15">
+      <c r="A24" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
         <v>42</v>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"request edits in workshop details")</f>
         <v>request edits in workshop details</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>129</v>
+      <c r="G24" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15">
+      <c r="A25" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
         <v>45</v>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create conferences by adding the conference name, start and end dates and times, short description, full agenda, conference website link, required budget, source of funding (extrernal or GUC), extra required resources")</f>
         <v>create conferences by adding the conference name, start and end dates and times, short description, full agenda, conference website link, required budget, source of funding (extrernal or GUC), extra required resources</v>
       </c>
-      <c r="D25" s="15" t="str">
+      <c r="D25" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"the conference website will contain all the conference's details. Each conference usually has a landing page so there will be no need to add ALL the info to the event on the system")</f>
         <v>the conference website will contain all the conference's details. Each conference usually has a landing page so there will be no need to add ALL the info to the event on the system</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>133</v>
+      <c r="G25" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15">
+      <c r="A26" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
         <v>46</v>
       </c>
-      <c r="B26" s="15" t="str">
+      <c r="B26" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"edit any of the conference details")</f>
         <v>edit any of the conference details</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>133</v>
+      <c r="G26" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15">
+      <c r="A27" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
         <v>48</v>
       </c>
-      <c r="B27" s="15" t="str">
+      <c r="B27" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"delete any event")</f>
         <v>delete any event</v>
       </c>
-      <c r="D27" s="15" t="str">
+      <c r="D27" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"if no one registered for it yet")</f>
         <v>if no one registered for it yet</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>131</v>
       </c>
+      <c r="I27" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="15">
+      <c r="A28" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
         <v>59</v>
       </c>
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of upcoming bazaars ")</f>
         <v>view a list of upcoming bazaars </v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>134</v>
+      <c r="G28" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15">
+      <c r="A29" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
         <v>60</v>
       </c>
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"apply to join a bazaar from the list of bazaars by filling in a form with the following details: names and emails of a max of 5 individuals attending, booth size ")</f>
         <v>apply to join a bazaar from the list of bazaars by filling in a form with the following details: names and emails of a max of 5 individuals attending, booth size </v>
       </c>
-      <c r="D29" s="15" t="str">
+      <c r="D29" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"booth size can be 2x2 or 4x4")</f>
         <v>booth size can be 2x2 or 4x4</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>134</v>
+      <c r="G29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15">
+      <c r="A30" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
         <v>61</v>
       </c>
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"apply for a booth in platform by filling in a form with the following details: names and emails of a max of 5 individuals attending, duration of booth set up, location of booth setup, booth size ")</f>
         <v>apply for a booth in platform by filling in a form with the following details: names and emails of a max of 5 individuals attending, duration of booth set up, location of booth setup, booth size </v>
       </c>
-      <c r="D30" s="15" t="str">
+      <c r="D30" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"duration can be 1 week - 4 weeks and location in platform will be selected according to a map of the platform and booth size can be 2x2 or 4x4")</f>
         <v>duration can be 1 week - 4 weeks and location in platform will be selected according to a map of the platform and booth size can be 2x2 or 4x4</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>134</v>
+      <c r="G30" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="15">
+      <c r="A31" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
         <v>68</v>
       </c>
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view all upcoming bazaars or booth set ups I am participating in (accepted requests only)")</f>
         <v>view all upcoming bazaars or booth set ups I am participating in (accepted requests only)</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="15">
+      <c r="G31" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
         <v>69</v>
       </c>
-      <c r="B32" s="15" t="str">
+      <c r="B32" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view all requests for upcoming bazaars or booth set ups I want to participate in (pending or rejected)")</f>
         <v>view all requests for upcoming bazaars or booth set ups I want to participate in (pending or rejected)</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>134</v>
+      <c r="G32" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15">
+      <c r="A33" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
         <v>75</v>
       </c>
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view the details of vendor participation requests in bazaars or booths")</f>
         <v>view the details of vendor participation requests in bazaars or booths</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>131</v>
       </c>
+      <c r="I33" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="15">
+      <c r="A34" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
         <v>77</v>
       </c>
-      <c r="B34" s="15" t="str">
+      <c r="B34" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"accept /reject vendors participation requests")</f>
         <v>accept /reject vendors participation requests</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>131</v>
       </c>
+      <c r="I34" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="15">
+      <c r="A35" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
         <v>78</v>
       </c>
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student")</f>
         <v>Student</v>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view all the courts on campus (basketball/tennis/football) and their availability dates and times")</f>
         <v>view all the courts on campus (basketball/tennis/football) and their availability dates and times</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>134</v>
+      <c r="G35" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15">
+      <c r="A36" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
         <v>80</v>
       </c>
-      <c r="B36" s="15" t="str">
+      <c r="B36" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor")</f>
         <v>Student/Staff/ Events Office/TA/ Professor</v>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view the gym schedule for each month's sessions (e.g. yoga, pilates, aerobics, Zumba, cross circuit, kick-boxing)")</f>
         <v>view the gym schedule for each month's sessions (e.g. yoga, pilates, aerobics, Zumba, cross circuit, kick-boxing)</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.5)</f>
         <v>2.5</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>134</v>
+      <c r="G36" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15">
+      <c r="A37" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
         <v>84</v>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create a gym session with the following details: date, time, duration, type (e.g. yoga, pilates, aerobics, Zumba, cross circuit, kick-boxing), max number of participants")</f>
         <v>create a gym session with the following details: date, time, duration, type (e.g. yoga, pilates, aerobics, Zumba, cross circuit, kick-boxing), max number of participants</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>134</v>
+      <c r="G37" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H37 J2:J37">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH(("NO"),(H2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H37 J2:J37">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(H2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Maybe">
+      <formula>NOT(ISERROR(SEARCH(("Maybe"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I40">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I40">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6455,7 +6835,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="43.86"/>
-    <col customWidth="1" min="3" max="3" width="31.71"/>
+    <col customWidth="1" min="3" max="3" width="108.0"/>
     <col customWidth="1" min="4" max="4" width="30.29"/>
     <col customWidth="1" min="7" max="7" width="21.14"/>
   </cols>
@@ -6477,1225 +6857,1496 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(FILTER('Functional Requirements'!A:F, 'Functional Requirements'!F:F=2), ""No Sprint 2 items"")
 "),3.0)</f>
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="str">
+      <c r="B2" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"upload tax card and logo to prove company validity")</f>
         <v>upload tax card and logo to prove company validity</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="G2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student")</f>
         <v>Student</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a verification email after registration ")</f>
         <v>receive a verification email after registration </v>
       </c>
-      <c r="D3" s="15" t="str">
+      <c r="D3" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The verification mail should contain a verification link that automatically redirects me to the login page
 If I didnot click on the link I shouldnt be verified hence the login should fail")</f>
         <v>The verification mail should contain a verification link that automatically redirects me to the login page
 If I didnot click on the link I shouldnt be verified hence the login should fail</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="G3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="15">
+      <c r="A4" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
         <v>13</v>
       </c>
-      <c r="B4" s="15" t="str">
+      <c r="B4" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"filter the events by a specific name(Professor name incase of a workshop or a conference), location, type or date")</f>
         <v>filter the events by a specific name(Professor name incase of a workshop or a conference), location, type or date</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="G4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="15">
+      <c r="A5" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="str">
+      <c r="B5" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sort the events by date")</f>
         <v>sort the events by date</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="G5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="15">
+      <c r="A6" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="str">
+      <c r="B6" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ TA/ Professor")</f>
         <v>Student/Staff/ TA/ Professor</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rate an event that i attended ")</f>
         <v>rate an event that i attended </v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="15">
+      <c r="A7" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
         <v>16</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/ Professor")</f>
         <v>Student/Staff/TA/ Professor</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comment on an event that i attended")</f>
         <v>comment on an event that i attended</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="15">
+      <c r="A8" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
         <v>17</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view all ratings and comments on any event")</f>
         <v>view all ratings and comments on any event</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="15">
+      <c r="A9" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"delete any inappropriate comments")</f>
         <v>delete any inappropriate comments</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="15">
+      <c r="A10" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"block any user")</f>
         <v>block any user</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="15">
+      <c r="A11" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
         <v>21</v>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor")</f>
         <v>Student/Staff/ Events Office/TA/ Professor</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a warning email if any of my comments were deleted for being inappropriate")</f>
         <v>receive a warning email if any of my comments were deleted for being inappropriate</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="15">
+      <c r="A12" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
         <v>22</v>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add an event to their favorites list")</f>
         <v>add an event to their favorites list</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="15">
+      <c r="A13" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
         <v>23</v>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view my favorites list")</f>
         <v>view my favorites list</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="15">
+      <c r="A14" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
         <v>25</v>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pay for the workshop/trip he/she registered for using credit card/ debit card (using Stripe) or from wallet if available")</f>
         <v>pay for the workshop/trip he/she registered for using credit card/ debit card (using Stripe) or from wallet if available</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H14" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="15">
+      <c r="A15" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
         <v>26</v>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a payment receipt via email upon paying")</f>
         <v>receive a payment receipt via email upon paying</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="15">
+      <c r="A16" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
         <v>28</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel the registration and refund the amount paid on my wallet")</f>
         <v>cancel the registration and refund the amount paid on my wallet</v>
       </c>
-      <c r="D16" s="15" t="str">
+      <c r="D16" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancellation can only be accepted if there are still 2 weeks for the event")</f>
         <v>cancellation can only be accepted if there are still 2 weeks for the event</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H16" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="15">
+      <c r="A17" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
         <v>29</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view amount refunded in my wallet")</f>
         <v>view amount refunded in my wallet</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="15">
+      <c r="A18" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
         <v>30</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a certificate of attendance upon finishing workshop via email")</f>
         <v>receive a certificate of attendance upon finishing workshop via email</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="15">
+      <c r="A19" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
         <v>38</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of participants in a workshop that i created and the number of remaining spots")</f>
         <v>view a list of participants in a workshop that i created and the number of remaining spots</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="15">
+      <c r="A20" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
         <v>39</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system when doctors submit workshop requests")</f>
         <v>receive notifications on the system when doctors submit workshop requests</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H20" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="15">
+      <c r="A21" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
         <v>43</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view status and any requested edits of my submitted workshops")</f>
         <v>view status and any requested edits of my submitted workshops</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="15">
+      <c r="A22" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
         <v>44</v>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a notification on the system if my workshop has been accepted/rejected")</f>
         <v>receive a notification on the system if my workshop has been accepted/rejected</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="15">
+      <c r="A23" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
         <v>47</v>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"archive events that have already passed")</f>
         <v>archive events that have already passed</v>
       </c>
-      <c r="D23" s="15" t="str">
+      <c r="D23" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"this applies to ALL kinds of events on the system")</f>
         <v>this applies to ALL kinds of events on the system</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H23" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="15">
+      <c r="A24" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
         <v>49</v>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office ")</f>
         <v>Events Office </v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"export names of those registered for any event (except conferences) in a .xlxs sheet")</f>
         <v>export names of those registered for any event (except conferences) in a .xlxs sheet</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="15">
+      <c r="A25" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
         <v>50</v>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"restrict events to specific users")</f>
         <v>restrict events to specific users</v>
       </c>
-      <c r="D25" s="15" t="str">
+      <c r="D25" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"means i can choose if this workshop is only available for students for example")</f>
         <v>means i can choose if this workshop is only available for students for example</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H25" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="15">
+      <c r="A26" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
         <v>51</v>
       </c>
-      <c r="B26" s="15" t="str">
+      <c r="B26" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate QR codes for external visitors to bazaars and career fairs")</f>
         <v>generate QR codes for external visitors to bazaars and career fairs</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="15">
+      <c r="A27" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
         <v>52</v>
       </c>
-      <c r="B27" s="15" t="str">
+      <c r="B27" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a report containing the total number of attendees in events ")</f>
         <v>view a report containing the total number of attendees in events </v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H27" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="15">
+      <c r="A28" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
         <v>53</v>
       </c>
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"filter the report of total number of attendees in events by event name/event type/date")</f>
         <v>filter the report of total number of attendees in events by event name/event type/date</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="15">
+      <c r="A29" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
         <v>54</v>
       </c>
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a sales report containing all the revenue from different events")</f>
         <v>view a sales report containing all the revenue from different events</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H29" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="15">
+      <c r="A30" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
         <v>55</v>
       </c>
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"filter sales report based on event type and/or date")</f>
         <v>filter sales report based on event type and/or date</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H30" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="15">
+      <c r="A31" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
         <v>56</v>
       </c>
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sort sales report by revenue (least to greatest or greatest to least)")</f>
         <v>sort sales report by revenue (least to greatest or greatest to least)</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H31" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="15">
+      <c r="A32" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
         <v>57</v>
       </c>
-      <c r="B32" s="15" t="str">
+      <c r="B32" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor")</f>
         <v>Student/Staff/ Events Office/TA/ Professor</v>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system for any new added events")</f>
         <v>receive notifications on the system for any new added events</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="15">
+      <c r="A33" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
         <v>58</v>
       </c>
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor")</f>
         <v>Student/Staff/ Events Office/TA/ Professor</v>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive reminders as notifications on the system for any events i registered for 1 day and 1 hour prior")</f>
         <v>receive reminders as notifications on the system for any events i registered for 1 day and 1 hour prior</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H33" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="15">
+      <c r="A34" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
         <v>62</v>
       </c>
-      <c r="B34" s="15" t="str">
+      <c r="B34" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"upload IDs of individuals attending for the entire duration of bazaar or booth set up in platform")</f>
         <v>upload IDs of individuals attending for the entire duration of bazaar or booth set up in platform</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H34" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="15">
+      <c r="A35" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
         <v>63</v>
       </c>
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive an email notification if my request to apply to join a bazaar or apply for a booth has been accepted/rejected")</f>
         <v>receive an email notification if my request to apply to join a bazaar or apply for a booth has been accepted/rejected</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H35" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="15">
+      <c r="A36" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
         <v>64</v>
       </c>
-      <c r="B36" s="15" t="str">
+      <c r="B36" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pay participation fees for bazaar/booth upon acceptance of the request")</f>
         <v>pay participation fees for bazaar/booth upon acceptance of the request</v>
       </c>
-      <c r="D36" s="15" t="str">
+      <c r="D36" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"for booth: based on duration and location, for bazaar, based on location and booth size. Deadline for payment for vendor must be 3 days after receiving the acceptance email")</f>
         <v>for booth: based on duration and location, for bazaar, based on location and booth size. Deadline for payment for vendor must be 3 days after receiving the acceptance email</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H36" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="15">
+      <c r="A37" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),65.0)</f>
         <v>65</v>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a payment receipt via email upon paying")</f>
         <v>receive a payment receipt via email upon paying</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H37" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="15">
+      <c r="A38" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
         <v>66</v>
       </c>
-      <c r="B38" s="15" t="str">
+      <c r="B38" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C38" s="15" t="str">
+      <c r="C38" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive QR code for all registered visitors coming to the bazaar/booth via email")</f>
         <v>receive QR code for all registered visitors coming to the bazaar/booth via email</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="15">
+      <c r="A39" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
         <v>67</v>
       </c>
-      <c r="B39" s="15" t="str">
+      <c r="B39" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C39" s="15" t="str">
+      <c r="C39" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel my participation request")</f>
         <v>cancel my participation request</v>
       </c>
-      <c r="D39" s="15" t="str">
+      <c r="D39" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"this can only happen if the vendor has not paid yet")</f>
         <v>this can only happen if the vendor has not paid yet</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H39" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="15">
+      <c r="A40" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
         <v>70</v>
       </c>
-      <c r="B40" s="15" t="str">
+      <c r="B40" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C40" s="15" t="str">
+      <c r="C40" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"apply to participate in GUC loyalty program by filling form that includes discount rate,promo code, terms and conditions")</f>
         <v>apply to participate in GUC loyalty program by filling form that includes discount rate,promo code, terms and conditions</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15">
+      <c r="D40" s="29"/>
+      <c r="E40" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H40" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="15">
+      <c r="A41" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),71.0)</f>
         <v>71</v>
       </c>
-      <c r="B41" s="15" t="str">
+      <c r="B41" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C41" s="15" t="str">
+      <c r="C41" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel my participation in GUC loyalty program")</f>
         <v>cancel my participation in GUC loyalty program</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15">
+      <c r="D41" s="29"/>
+      <c r="E41" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H41" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="15">
+      <c r="A42" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
         <v>72</v>
       </c>
-      <c r="B42" s="15" t="str">
+      <c r="B42" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor/ Events Office/Admin")</f>
         <v>Student/Staff/TA/Professor/ Events Office/Admin</v>
       </c>
-      <c r="C42" s="15" t="str">
+      <c r="C42" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of all vendors that are partners in GUC loyalty program along with discount rates,promo code, terms and conditions")</f>
         <v>view a list of all vendors that are partners in GUC loyalty program along with discount rates,promo code, terms and conditions</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15">
+      <c r="D42" s="29"/>
+      <c r="E42" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H42" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="15">
+      <c r="A43" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
         <v>73</v>
       </c>
-      <c r="B43" s="15" t="str">
+      <c r="B43" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C43" s="15" t="str">
+      <c r="C43" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system for newly added partners in GUC loyalty program ")</f>
         <v>receive notifications on the system for newly added partners in GUC loyalty program </v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H43" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="15">
+      <c r="A44" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
         <v>74</v>
       </c>
-      <c r="B44" s="15" t="str">
+      <c r="B44" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C44" s="15" t="str">
+      <c r="C44" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system for pending vendor requests")</f>
         <v>receive notifications on the system for pending vendor requests</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15">
+      <c r="D44" s="29"/>
+      <c r="E44" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H44" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="15">
+      <c r="A45" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
         <v>76</v>
       </c>
-      <c r="B45" s="15" t="str">
+      <c r="B45" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C45" s="15" t="str">
+      <c r="C45" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view/ download uploaded documents")</f>
         <v>view/ download uploaded documents</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15">
+      <c r="D45" s="29"/>
+      <c r="E45" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H45" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="15">
+      <c r="A46" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
         <v>79</v>
       </c>
-      <c r="B46" s="15" t="str">
+      <c r="B46" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student")</f>
         <v>Student</v>
       </c>
-      <c r="C46" s="15" t="str">
+      <c r="C46" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"reserve a court (basketball/ tennis/ football) by choosing from the free dates and times")</f>
         <v>reserve a court (basketball/ tennis/ football) by choosing from the free dates and times</v>
       </c>
-      <c r="D46" s="15" t="str">
+      <c r="D46" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"reservation should automatially include the student's name and GUC ID number")</f>
         <v>reservation should automatially include the student's name and GUC ID number</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H46" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="15">
+      <c r="A47" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
         <v>81</v>
       </c>
-      <c r="B47" s="15" t="str">
+      <c r="B47" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C47" s="15" t="str">
+      <c r="C47" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"register to attend a session")</f>
         <v>register to attend a session</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15">
+      <c r="D47" s="29"/>
+      <c r="E47" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H47" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="15">
+      <c r="A48" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
         <v>82</v>
       </c>
-      <c r="B48" s="15" t="str">
+      <c r="B48" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C48" s="15" t="str">
+      <c r="C48" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create a poll with different vendors requesting to set up booths in the platform during the same durations")</f>
         <v>create a poll with different vendors requesting to set up booths in the platform during the same durations</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15">
+      <c r="D48" s="29"/>
+      <c r="E48" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H48" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="15">
+      <c r="A49" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
         <v>83</v>
       </c>
-      <c r="B49" s="15" t="str">
+      <c r="B49" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C49" s="15" t="str">
+      <c r="C49" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"vote for a vendor to come and set up a booth in the platform based on the poll")</f>
         <v>vote for a vendor to come and set up a booth in the platform based on the poll</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15">
+      <c r="D49" s="29"/>
+      <c r="E49" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H49" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="15">
+      <c r="A50" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
         <v>85</v>
       </c>
-      <c r="B50" s="15" t="str">
+      <c r="B50" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C50" s="15" t="str">
+      <c r="C50" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel a gym session")</f>
         <v>cancel a gym session</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H50" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="15">
+      <c r="A51" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
         <v>86</v>
       </c>
-      <c r="B51" s="15" t="str">
+      <c r="B51" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C51" s="15" t="str">
+      <c r="C51" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"edit a gym session")</f>
         <v>edit a gym session</v>
       </c>
-      <c r="D51" s="15" t="str">
+      <c r="D51" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"date, time, duration only can be edited")</f>
         <v>date, time, duration only can be edited</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H51" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="15">
+      <c r="A52" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
         <v>87</v>
       </c>
-      <c r="B52" s="15" t="str">
+      <c r="B52" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C52" s="15" t="str">
+      <c r="C52" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive an email notification if a gym session I registered to attend was cancelled or edited")</f>
         <v>receive an email notification if a gym session I registered to attend was cancelled or edited</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="29">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="H52" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H4 H26 H38">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH(("NO"),(H2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H4 H26 H38">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(H2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7719,1913 +8370,1913 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="18"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="32"/>
     </row>
     <row r="2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="19"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="33"/>
     </row>
     <row r="3">
-      <c r="A3" s="21">
+      <c r="A3" s="35">
         <v>1.0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="22">
+        <v>144</v>
+      </c>
+      <c r="C3" s="36">
         <v>3.0</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="36">
         <v>20.0</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>10.0</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39">
+        <v>60.0</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D13" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="22">
+      <c r="E13" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="36">
         <v>3.0</v>
       </c>
-      <c r="D4" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="21">
+      <c r="D14" s="36">
+        <v>10.0</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="36">
         <v>3.0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="D15" s="36">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="39">
+        <v>20.0</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="32"/>
+      <c r="B20" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="40">
         <v>3.0</v>
       </c>
-      <c r="D5" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="25">
-        <v>60.0</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="25">
+      <c r="D20" s="39">
         <v>20.0</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="18"/>
-      <c r="B20" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="D20" s="25">
-        <v>20.0</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="E20" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39">
         <v>100.0</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
+      <c r="A156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
+      <c r="A157" s="32"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
+      <c r="A158" s="32"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
+      <c r="A159" s="32"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
+      <c r="A160" s="32"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
+      <c r="A161" s="32"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="18"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
+      <c r="A162" s="32"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
+      <c r="A165" s="32"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
+      <c r="A166" s="32"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="18"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
+      <c r="A169" s="32"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
+      <c r="A170" s="32"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
+      <c r="A171" s="32"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
+      <c r="A172" s="32"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
+      <c r="A173" s="32"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="18"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
+      <c r="A174" s="32"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
+      <c r="A175" s="32"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
+      <c r="A180" s="32"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
+      <c r="A181" s="32"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="18"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
+      <c r="A182" s="32"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="18"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
+      <c r="A183" s="32"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="18"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
+      <c r="A184" s="32"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="18"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
+      <c r="A185" s="32"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
+      <c r="A187" s="32"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="18"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
+      <c r="A188" s="32"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="18"/>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
+      <c r="A189" s="32"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="32"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="18"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
+      <c r="A190" s="32"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="32"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
+      <c r="A192" s="32"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
+      <c r="A194" s="32"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
+      <c r="A195" s="32"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="18"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="18"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
+      <c r="A198" s="32"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="18"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
+      <c r="A199" s="32"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="18"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
+      <c r="A200" s="32"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="18"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="18"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
+      <c r="A202" s="32"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="32"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="18"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
+      <c r="A203" s="32"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="32"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="18"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
+      <c r="A204" s="32"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="18"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="18"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="18"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="18"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
+      <c r="A208" s="32"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="18"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="18"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
+      <c r="A210" s="32"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
+      <c r="A211" s="32"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="18"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
+      <c r="A212" s="32"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="18"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
+      <c r="A213" s="32"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="18"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="18"/>
+      <c r="A214" s="32"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="18"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="18"/>
-      <c r="D215" s="18"/>
-      <c r="E215" s="18"/>
-      <c r="F215" s="18"/>
+      <c r="A215" s="32"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="18"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18"/>
+      <c r="A216" s="32"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="18"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
+      <c r="A217" s="32"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="18"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18"/>
+      <c r="A218" s="32"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="18"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="18"/>
+      <c r="A219" s="32"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="18"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
-      <c r="F220" s="18"/>
+      <c r="A220" s="32"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="18"/>
-      <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="18"/>
+      <c r="A221" s="32"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="18"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
-      <c r="F222" s="18"/>
+      <c r="A222" s="32"/>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="18"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
+      <c r="A223" s="32"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="18"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
-      <c r="F224" s="18"/>
+      <c r="A224" s="32"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
     </row>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>

--- a/Project requirements.xlsx
+++ b/Project requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="163">
   <si>
     <t xml:space="preserve">As a </t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>Ahmed Khalid Mohamed</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>DONE?</t>
   </si>
   <si>
     <t>NO</t>
@@ -709,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -765,10 +771,10 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -781,7 +787,6 @@
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -825,7 +830,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
     <dxf>
       <font/>
       <fill>
@@ -862,6 +867,76 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4A86E8"/>
+          <bgColor rgb="FF4A86E8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA3FF9F"/>
+          <bgColor rgb="FFA3FF9F"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3C78D8"/>
+          <bgColor rgb="FF3C78D8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF1C232"/>
+          <bgColor rgb="FFF1C232"/>
         </patternFill>
       </fill>
       <border/>
@@ -1092,7 +1167,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="6.57"/>
     <col customWidth="1" min="2" max="2" width="45.43"/>
-    <col customWidth="1" min="3" max="3" width="77.43"/>
+    <col customWidth="1" min="3" max="3" width="118.14"/>
     <col customWidth="1" min="4" max="4" width="51.0"/>
     <col customWidth="1" min="5" max="6" width="8.71"/>
     <col customWidth="1" min="7" max="7" width="29.57"/>
@@ -1344,7 +1419,7 @@
       </c>
       <c r="G7" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A7, 'Sprint 1'!A:A, 0)), VLOOKUP(A7, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A7, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v>Ahmed Mohamed Elsayed</v>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1506,7 +1581,7 @@
       </c>
       <c r="G11" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A11, 'Sprint 1'!A:A, 0)), VLOOKUP(A11, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A11, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v>Yehia Wael Raafat</v>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1708,7 +1783,7 @@
       </c>
       <c r="G16" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A16, 'Sprint 1'!A:A, 0)), VLOOKUP(A16, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A16, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1748,7 +1823,7 @@
       </c>
       <c r="G17" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A17, 'Sprint 1'!A:A, 0)), VLOOKUP(A17, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A17, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1788,7 +1863,7 @@
       </c>
       <c r="G18" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A18, 'Sprint 1'!A:A, 0)), VLOOKUP(A18, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A18, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1828,7 +1903,7 @@
       </c>
       <c r="G19" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A19, 'Sprint 1'!A:A, 0)), VLOOKUP(A19, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A19, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1868,7 +1943,7 @@
       </c>
       <c r="G20" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A20, 'Sprint 1'!A:A, 0)), VLOOKUP(A20, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A20, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ali Ussama Youssef</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1948,7 +2023,7 @@
       </c>
       <c r="G22" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A22, 'Sprint 1'!A:A, 0)), VLOOKUP(A22, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A22, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -1988,7 +2063,7 @@
       </c>
       <c r="G23" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A23, 'Sprint 1'!A:A, 0)), VLOOKUP(A23, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A23, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2028,7 +2103,7 @@
       </c>
       <c r="G24" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A24, 'Sprint 1'!A:A, 0)), VLOOKUP(A24, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A24, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ali Ussama Youssef</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2108,7 +2183,7 @@
       </c>
       <c r="G26" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A26, 'Sprint 1'!A:A, 0)), VLOOKUP(A26, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A26, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2148,7 +2223,7 @@
       </c>
       <c r="G27" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A27, 'Sprint 1'!A:A, 0)), VLOOKUP(A27, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A27, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2232,7 +2307,7 @@
       </c>
       <c r="G29" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A29, 'Sprint 1'!A:A, 0)), VLOOKUP(A29, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A29, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -2272,7 +2347,7 @@
       </c>
       <c r="G30" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A30, 'Sprint 1'!A:A, 0)), VLOOKUP(A30, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A30, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -2312,7 +2387,7 @@
       </c>
       <c r="G31" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A31, 'Sprint 1'!A:A, 0)), VLOOKUP(A31, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A31, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -2510,7 +2585,7 @@
       </c>
       <c r="G39" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A39, 'Sprint 1'!A:A, 0)), VLOOKUP(A39, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A39, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
@@ -2532,7 +2607,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A40, 'Sprint 1'!A:A, 0)), VLOOKUP(A40, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A40, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -2620,7 +2695,7 @@
       </c>
       <c r="G44" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A44, 'Sprint 1'!A:A, 0)), VLOOKUP(A44, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A44, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
@@ -2642,7 +2717,7 @@
       </c>
       <c r="G45" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A45, 'Sprint 1'!A:A, 0)), VLOOKUP(A45, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A45, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -2730,7 +2805,7 @@
       </c>
       <c r="G48" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A48, 'Sprint 1'!A:A, 0)), VLOOKUP(A48, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A48, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -2776,7 +2851,7 @@
       </c>
       <c r="G50" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A50, 'Sprint 1'!A:A, 0)), VLOOKUP(A50, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A50, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
@@ -2800,7 +2875,7 @@
       </c>
       <c r="G51" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A51, 'Sprint 1'!A:A, 0)), VLOOKUP(A51, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A51, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
@@ -2844,7 +2919,7 @@
       </c>
       <c r="G53" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A53, 'Sprint 1'!A:A, 0)), VLOOKUP(A53, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A53, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
@@ -2866,7 +2941,7 @@
       </c>
       <c r="G54" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A54, 'Sprint 1'!A:A, 0)), VLOOKUP(A54, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A54, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -2888,7 +2963,7 @@
       </c>
       <c r="G55" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A55, 'Sprint 1'!A:A, 0)), VLOOKUP(A55, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A55, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Yehia Wael Raafat</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
@@ -2910,7 +2985,7 @@
       </c>
       <c r="G56" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A56, 'Sprint 1'!A:A, 0)), VLOOKUP(A56, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A56, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Yehia Wael Raafat</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
@@ -2932,7 +3007,7 @@
       </c>
       <c r="G57" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A57, 'Sprint 1'!A:A, 0)), VLOOKUP(A57, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A57, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Yehia Wael Raafat</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -2954,7 +3029,7 @@
       </c>
       <c r="G58" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A58, 'Sprint 1'!A:A, 0)), VLOOKUP(A58, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A58, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -2976,7 +3051,7 @@
       </c>
       <c r="G59" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A59, 'Sprint 1'!A:A, 0)), VLOOKUP(A59, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A59, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -3068,7 +3143,7 @@
       </c>
       <c r="G63" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A63, 'Sprint 1'!A:A, 0)), VLOOKUP(A63, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A63, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
@@ -3090,7 +3165,7 @@
       </c>
       <c r="G64" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A64, 'Sprint 1'!A:A, 0)), VLOOKUP(A64, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A64, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
@@ -3114,7 +3189,7 @@
       </c>
       <c r="G65" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A65, 'Sprint 1'!A:A, 0)), VLOOKUP(A65, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A65, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
@@ -3136,7 +3211,7 @@
       </c>
       <c r="G66" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A66, 'Sprint 1'!A:A, 0)), VLOOKUP(A66, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A66, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
@@ -3182,7 +3257,7 @@
       </c>
       <c r="G68" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A68, 'Sprint 1'!A:A, 0)), VLOOKUP(A68, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A68, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ali Ussama Youssef</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
@@ -3248,7 +3323,7 @@
       </c>
       <c r="G71" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A71, 'Sprint 1'!A:A, 0)), VLOOKUP(A71, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A71, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ali Ussama Youssef</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -3270,7 +3345,7 @@
       </c>
       <c r="G72" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A72, 'Sprint 1'!A:A, 0)), VLOOKUP(A72, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A72, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -3292,7 +3367,7 @@
       </c>
       <c r="G73" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A73, 'Sprint 1'!A:A, 0)), VLOOKUP(A73, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A73, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ali Ussama Youssef</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -3314,7 +3389,7 @@
       </c>
       <c r="G74" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A74, 'Sprint 1'!A:A, 0)), VLOOKUP(A74, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A74, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -3336,7 +3411,7 @@
       </c>
       <c r="G75" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A75, 'Sprint 1'!A:A, 0)), VLOOKUP(A75, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A75, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -3380,7 +3455,7 @@
       </c>
       <c r="G77" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A77, 'Sprint 1'!A:A, 0)), VLOOKUP(A77, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A77, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -3448,7 +3523,7 @@
       </c>
       <c r="G80" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A80, 'Sprint 1'!A:A, 0)), VLOOKUP(A80, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A80, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Mohamed Elsayed</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -3492,7 +3567,7 @@
       </c>
       <c r="G82" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A82, 'Sprint 1'!A:A, 0)), VLOOKUP(A82, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A82, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -3514,7 +3589,7 @@
       </c>
       <c r="G83" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A83, 'Sprint 1'!A:A, 0)), VLOOKUP(A83, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A83, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -3536,7 +3611,7 @@
       </c>
       <c r="G84" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A84, 'Sprint 1'!A:A, 0)), VLOOKUP(A84, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A84, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Abdelhamid Sameh Abdelhamid</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -3580,7 +3655,7 @@
       </c>
       <c r="G86" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A86, 'Sprint 1'!A:A, 0)), VLOOKUP(A86, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A86, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -3604,7 +3679,7 @@
       </c>
       <c r="G87" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A87, 'Sprint 1'!A:A, 0)), VLOOKUP(A87, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A87, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Khalid Mohamed</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -3626,7 +3701,7 @@
       </c>
       <c r="G88" s="9" t="str">
         <f>IF(ISNUMBER(MATCH(A88, 'Sprint 1'!A:A, 0)), VLOOKUP(A88, 'Sprint 1'!A:G, 7, FALSE), VLOOKUP(A88, 'Sprint 2'!A:G, 7, FALSE))</f>
-        <v/>
+        <v>Ahmed Hamdy Mostafa</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -5723,8 +5798,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>134</v>
+      <c r="G5" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>131</v>
@@ -5734,28 +5809,28 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C6" s="21" t="str">
+      <c r="C6" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create other admin/Event Office accounts including the admin name, email and password")</f>
         <v>create other admin/Event Office accounts including the admin name, email and password</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -5766,28 +5841,28 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C7" s="21" t="str">
+      <c r="C7" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"delete other admin/Event Office accounts")</f>
         <v>delete other admin/Event Office accounts</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -5854,8 +5929,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>135</v>
+      <c r="G9" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>131</v>
@@ -6424,31 +6499,31 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21">
+      <c r="A27" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
         <v>48</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"delete any event")</f>
         <v>delete any event</v>
       </c>
-      <c r="D27" s="21" t="str">
+      <c r="D27" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"if no one registered for it yet")</f>
         <v>if no one registered for it yet</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="18" t="s">
@@ -6625,28 +6700,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21">
+      <c r="A33" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
         <v>75</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view the details of vendor participation requests in bazaars or booths")</f>
         <v>view the details of vendor participation requests in bazaars or booths</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="18" t="s">
@@ -6657,28 +6732,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21">
+      <c r="A34" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
         <v>77</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C34" s="21" t="str">
+      <c r="C34" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"accept /reject vendors participation requests")</f>
         <v>accept /reject vendors participation requests</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="18" t="s">
@@ -6781,7 +6856,7 @@
         <v>131</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6820,6 +6895,36 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G37">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text=" Ali Ussama Youssef">
+      <formula>NOT(ISERROR(SEARCH((" Ali Ussama Youssef"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G37">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Ahmed Mohamed Elsayed">
+      <formula>NOT(ISERROR(SEARCH(("Ahmed Mohamed Elsayed"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G37">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Abdelhamid Sameh Abdelhamid">
+      <formula>NOT(ISERROR(SEARCH(("Abdelhamid Sameh Abdelhamid"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G37">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Yehia Wael Raafat">
+      <formula>NOT(ISERROR(SEARCH(("Yehia Wael Raafat"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G37">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="Ahmed Hamdy Mostafa">
+      <formula>NOT(ISERROR(SEARCH(("Ahmed Hamdy Mostafa"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G37">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Ahmed Khalid Mohamed">
+      <formula>NOT(ISERROR(SEARCH(("Ahmed Khalid Mohamed"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6836,8 +6941,11 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="43.86"/>
     <col customWidth="1" min="3" max="3" width="108.0"/>
-    <col customWidth="1" min="4" max="4" width="30.29"/>
-    <col customWidth="1" min="7" max="7" width="21.14"/>
+    <col customWidth="1" min="4" max="4" width="148.0"/>
+    <col customWidth="1" min="7" max="7" width="28.43"/>
+    <col customWidth="1" min="8" max="8" width="8.29"/>
+    <col customWidth="1" min="9" max="9" width="8.0"/>
+    <col customWidth="1" min="10" max="10" width="30.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6862,6 +6970,9 @@
       <c r="H1" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="16">
@@ -6890,12 +7001,14 @@
         <v>133</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
@@ -6922,13 +7035,15 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>133</v>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4">
@@ -6957,9 +7072,11 @@
         <v>135</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5">
@@ -6990,1361 +7107,1642 @@
       <c r="H5" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="29">
+      <c r="A6" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
         <v>15</v>
       </c>
-      <c r="B6" s="29" t="str">
+      <c r="B6" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ TA/ Professor")</f>
         <v>Student/Staff/ TA/ Professor</v>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rate an event that i attended ")</f>
         <v>rate an event that i attended </v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G6" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H6" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="29">
+      <c r="A7" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
         <v>16</v>
       </c>
-      <c r="B7" s="29" t="str">
+      <c r="B7" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/ Professor")</f>
         <v>Student/Staff/TA/ Professor</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comment on an event that i attended")</f>
         <v>comment on an event that i attended</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G7" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H7" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
         <v>17</v>
       </c>
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor/ Admin")</f>
         <v>Student/Staff/ Events Office/TA/ Professor/ Admin</v>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view all ratings and comments on any event")</f>
         <v>view all ratings and comments on any event</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G8" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H8" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="29">
+      <c r="A9" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
         <v>18</v>
       </c>
-      <c r="B9" s="29" t="str">
+      <c r="B9" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"delete any inappropriate comments")</f>
         <v>delete any inappropriate comments</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G9" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
         <v>19</v>
       </c>
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admin")</f>
         <v>Admin</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"block any user")</f>
         <v>block any user</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G10" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="H10" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="29">
+      <c r="A11" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
         <v>21</v>
       </c>
-      <c r="B11" s="29" t="str">
+      <c r="B11" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor")</f>
         <v>Student/Staff/ Events Office/TA/ Professor</v>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a warning email if any of my comments were deleted for being inappropriate")</f>
         <v>receive a warning email if any of my comments were deleted for being inappropriate</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G11" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="29">
+      <c r="A12" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
         <v>22</v>
       </c>
-      <c r="B12" s="29" t="str">
+      <c r="B12" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add an event to their favorites list")</f>
         <v>add an event to their favorites list</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G12" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H12" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="29">
+      <c r="A13" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="str">
+      <c r="B13" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view my favorites list")</f>
         <v>view my favorites list</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G13" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="H13" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="29">
+      <c r="A14" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
         <v>25</v>
       </c>
-      <c r="B14" s="29" t="str">
+      <c r="B14" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pay for the workshop/trip he/she registered for using credit card/ debit card (using Stripe) or from wallet if available")</f>
         <v>pay for the workshop/trip he/she registered for using credit card/ debit card (using Stripe) or from wallet if available</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G14" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="29">
+      <c r="A15" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
         <v>26</v>
       </c>
-      <c r="B15" s="29" t="str">
+      <c r="B15" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C15" s="29" t="str">
+      <c r="C15" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a payment receipt via email upon paying")</f>
         <v>receive a payment receipt via email upon paying</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G15" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="H15" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="29">
+      <c r="A16" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
         <v>28</v>
       </c>
-      <c r="B16" s="29" t="str">
+      <c r="B16" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C16" s="29" t="str">
+      <c r="C16" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel the registration and refund the amount paid on my wallet")</f>
         <v>cancel the registration and refund the amount paid on my wallet</v>
       </c>
-      <c r="D16" s="29" t="str">
+      <c r="D16" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancellation can only be accepted if there are still 2 weeks for the event")</f>
         <v>cancellation can only be accepted if there are still 2 weeks for the event</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G16" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="H16" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="29">
+      <c r="A17" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
         <v>29</v>
       </c>
-      <c r="B17" s="29" t="str">
+      <c r="B17" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C17" s="29" t="str">
+      <c r="C17" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view amount refunded in my wallet")</f>
         <v>view amount refunded in my wallet</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G17" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
         <v>30</v>
       </c>
-      <c r="B18" s="29" t="str">
+      <c r="B18" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C18" s="29" t="str">
+      <c r="C18" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a certificate of attendance upon finishing workshop via email")</f>
         <v>receive a certificate of attendance upon finishing workshop via email</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="5"/>
+      <c r="G18" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="29">
+      <c r="A19" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
         <v>38</v>
       </c>
-      <c r="B19" s="29" t="str">
+      <c r="B19" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C19" s="29" t="str">
+      <c r="C19" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of participants in a workshop that i created and the number of remaining spots")</f>
         <v>view a list of participants in a workshop that i created and the number of remaining spots</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G19" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="29">
+      <c r="A20" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
         <v>39</v>
       </c>
-      <c r="B20" s="29" t="str">
+      <c r="B20" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C20" s="29" t="str">
+      <c r="C20" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system when doctors submit workshop requests")</f>
         <v>receive notifications on the system when doctors submit workshop requests</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="G20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="29">
+      <c r="A21" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
         <v>43</v>
       </c>
-      <c r="B21" s="29" t="str">
+      <c r="B21" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C21" s="29" t="str">
+      <c r="C21" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view status and any requested edits of my submitted workshops")</f>
         <v>view status and any requested edits of my submitted workshops</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
         <v>44</v>
       </c>
-      <c r="B22" s="29" t="str">
+      <c r="B22" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Professor")</f>
         <v>Professor</v>
       </c>
-      <c r="C22" s="29" t="str">
+      <c r="C22" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a notification on the system if my workshop has been accepted/rejected")</f>
         <v>receive a notification on the system if my workshop has been accepted/rejected</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
         <v>47</v>
       </c>
-      <c r="B23" s="29" t="str">
+      <c r="B23" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C23" s="29" t="str">
+      <c r="C23" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"archive events that have already passed")</f>
         <v>archive events that have already passed</v>
       </c>
-      <c r="D23" s="29" t="str">
+      <c r="D23" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"this applies to ALL kinds of events on the system")</f>
         <v>this applies to ALL kinds of events on the system</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
         <v>49</v>
       </c>
-      <c r="B24" s="29" t="str">
+      <c r="B24" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office ")</f>
         <v>Events Office </v>
       </c>
-      <c r="C24" s="29" t="str">
+      <c r="C24" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"export names of those registered for any event (except conferences) in a .xlxs sheet")</f>
         <v>export names of those registered for any event (except conferences) in a .xlxs sheet</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
         <v>50</v>
       </c>
-      <c r="B25" s="29" t="str">
+      <c r="B25" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C25" s="29" t="str">
+      <c r="C25" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"restrict events to specific users")</f>
         <v>restrict events to specific users</v>
       </c>
-      <c r="D25" s="29" t="str">
+      <c r="D25" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"means i can choose if this workshop is only available for students for example")</f>
         <v>means i can choose if this workshop is only available for students for example</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
         <v>51</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B26" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate QR codes for external visitors to bazaars and career fairs")</f>
         <v>generate QR codes for external visitors to bazaars and career fairs</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="5"/>
+      <c r="H26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="29">
+      <c r="A27" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
         <v>52</v>
       </c>
-      <c r="B27" s="29" t="str">
+      <c r="B27" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C27" s="29" t="str">
+      <c r="C27" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a report containing the total number of attendees in events ")</f>
         <v>view a report containing the total number of attendees in events </v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G27" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H27" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="29">
+      <c r="A28" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
         <v>53</v>
       </c>
-      <c r="B28" s="29" t="str">
+      <c r="B28" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C28" s="29" t="str">
+      <c r="C28" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"filter the report of total number of attendees in events by event name/event type/date")</f>
         <v>filter the report of total number of attendees in events by event name/event type/date</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="29">
+      <c r="A29" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
         <v>54</v>
       </c>
-      <c r="B29" s="29" t="str">
+      <c r="B29" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C29" s="29" t="str">
+      <c r="C29" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a sales report containing all the revenue from different events")</f>
         <v>view a sales report containing all the revenue from different events</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="G29" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="29">
+      <c r="A30" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
         <v>55</v>
       </c>
-      <c r="B30" s="29" t="str">
+      <c r="B30" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C30" s="29" t="str">
+      <c r="C30" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"filter sales report based on event type and/or date")</f>
         <v>filter sales report based on event type and/or date</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="G30" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="29">
+      <c r="A31" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
         <v>56</v>
       </c>
-      <c r="B31" s="29" t="str">
+      <c r="B31" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C31" s="29" t="str">
+      <c r="C31" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sort sales report by revenue (least to greatest or greatest to least)")</f>
         <v>sort sales report by revenue (least to greatest or greatest to least)</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="G31" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
         <v>57</v>
       </c>
-      <c r="B32" s="29" t="str">
+      <c r="B32" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor")</f>
         <v>Student/Staff/ Events Office/TA/ Professor</v>
       </c>
-      <c r="C32" s="29" t="str">
+      <c r="C32" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system for any new added events")</f>
         <v>receive notifications on the system for any new added events</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="G32" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
         <v>58</v>
       </c>
-      <c r="B33" s="29" t="str">
+      <c r="B33" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/ Events Office/TA/ Professor")</f>
         <v>Student/Staff/ Events Office/TA/ Professor</v>
       </c>
-      <c r="C33" s="29" t="str">
+      <c r="C33" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive reminders as notifications on the system for any events i registered for 1 day and 1 hour prior")</f>
         <v>receive reminders as notifications on the system for any events i registered for 1 day and 1 hour prior</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="G33" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="29">
+      <c r="A34" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
         <v>62</v>
       </c>
-      <c r="B34" s="29" t="str">
+      <c r="B34" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C34" s="29" t="str">
+      <c r="C34" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"upload IDs of individuals attending for the entire duration of bazaar or booth set up in platform")</f>
         <v>upload IDs of individuals attending for the entire duration of bazaar or booth set up in platform</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H34" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="29">
+      <c r="A35" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
         <v>63</v>
       </c>
-      <c r="B35" s="29" t="str">
+      <c r="B35" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C35" s="29" t="str">
+      <c r="C35" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive an email notification if my request to apply to join a bazaar or apply for a booth has been accepted/rejected")</f>
         <v>receive an email notification if my request to apply to join a bazaar or apply for a booth has been accepted/rejected</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="G35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="29">
+      <c r="A36" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
         <v>64</v>
       </c>
-      <c r="B36" s="29" t="str">
+      <c r="B36" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C36" s="29" t="str">
+      <c r="C36" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pay participation fees for bazaar/booth upon acceptance of the request")</f>
         <v>pay participation fees for bazaar/booth upon acceptance of the request</v>
       </c>
-      <c r="D36" s="29" t="str">
+      <c r="D36" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"for booth: based on duration and location, for bazaar, based on location and booth size. Deadline for payment for vendor must be 3 days after receiving the acceptance email")</f>
         <v>for booth: based on duration and location, for bazaar, based on location and booth size. Deadline for payment for vendor must be 3 days after receiving the acceptance email</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="G36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="29">
+      <c r="A37" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),65.0)</f>
         <v>65</v>
       </c>
-      <c r="B37" s="29" t="str">
+      <c r="B37" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C37" s="29" t="str">
+      <c r="C37" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive a payment receipt via email upon paying")</f>
         <v>receive a payment receipt via email upon paying</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="G37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="21">
+      <c r="A38" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
         <v>66</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C38" s="21" t="str">
+      <c r="C38" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive QR code for all registered visitors coming to the bazaar/booth via email")</f>
         <v>receive QR code for all registered visitors coming to the bazaar/booth via email</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="5"/>
+      <c r="H38" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="29">
+      <c r="A39" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
         <v>67</v>
       </c>
-      <c r="B39" s="29" t="str">
+      <c r="B39" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C39" s="29" t="str">
+      <c r="C39" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel my participation request")</f>
         <v>cancel my participation request</v>
       </c>
-      <c r="D39" s="29" t="str">
+      <c r="D39" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"this can only happen if the vendor has not paid yet")</f>
         <v>this can only happen if the vendor has not paid yet</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="G39" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="29">
+      <c r="A40" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
         <v>70</v>
       </c>
-      <c r="B40" s="29" t="str">
+      <c r="B40" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C40" s="29" t="str">
+      <c r="C40" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"apply to participate in GUC loyalty program by filling form that includes discount rate,promo code, terms and conditions")</f>
         <v>apply to participate in GUC loyalty program by filling form that includes discount rate,promo code, terms and conditions</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="29">
+      <c r="A41" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),71.0)</f>
         <v>71</v>
       </c>
-      <c r="B41" s="29" t="str">
+      <c r="B41" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vendor")</f>
         <v>Vendor</v>
       </c>
-      <c r="C41" s="29" t="str">
+      <c r="C41" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel my participation in GUC loyalty program")</f>
         <v>cancel my participation in GUC loyalty program</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="29">
+      <c r="A42" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
         <v>72</v>
       </c>
-      <c r="B42" s="29" t="str">
+      <c r="B42" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor/ Events Office/Admin")</f>
         <v>Student/Staff/TA/Professor/ Events Office/Admin</v>
       </c>
-      <c r="C42" s="29" t="str">
+      <c r="C42" s="16" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view a list of all vendors that are partners in GUC loyalty program along with discount rates,promo code, terms and conditions")</f>
         <v>view a list of all vendors that are partners in GUC loyalty program along with discount rates,promo code, terms and conditions</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="16">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="G42" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="29">
+      <c r="A43" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
         <v>73</v>
       </c>
-      <c r="B43" s="29" t="str">
+      <c r="B43" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C43" s="29" t="str">
+      <c r="C43" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system for newly added partners in GUC loyalty program ")</f>
         <v>receive notifications on the system for newly added partners in GUC loyalty program </v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="G43" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="29">
+      <c r="A44" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
         <v>74</v>
       </c>
-      <c r="B44" s="29" t="str">
+      <c r="B44" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C44" s="29" t="str">
+      <c r="C44" s="22" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive notifications on the system for pending vendor requests")</f>
         <v>receive notifications on the system for pending vendor requests</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="22">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="G44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="29">
+      <c r="A45" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
         <v>76</v>
       </c>
-      <c r="B45" s="29" t="str">
+      <c r="B45" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office/Admin")</f>
         <v>Events Office/Admin</v>
       </c>
-      <c r="C45" s="29" t="str">
+      <c r="C45" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"view/ download uploaded documents")</f>
         <v>view/ download uploaded documents</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29">
+      <c r="D45" s="19"/>
+      <c r="E45" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G45" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H45" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="29">
+      <c r="A46" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
         <v>79</v>
       </c>
-      <c r="B46" s="29" t="str">
+      <c r="B46" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student")</f>
         <v>Student</v>
       </c>
-      <c r="C46" s="29" t="str">
+      <c r="C46" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"reserve a court (basketball/ tennis/ football) by choosing from the free dates and times")</f>
         <v>reserve a court (basketball/ tennis/ football) by choosing from the free dates and times</v>
       </c>
-      <c r="D46" s="29" t="str">
+      <c r="D46" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"reservation should automatially include the student's name and GUC ID number")</f>
         <v>reservation should automatially include the student's name and GUC ID number</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
+      <c r="G46" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="H46" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="29">
+      <c r="A47" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
         <v>81</v>
       </c>
-      <c r="B47" s="29" t="str">
+      <c r="B47" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C47" s="29" t="str">
+      <c r="C47" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"register to attend a session")</f>
         <v>register to attend a session</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29">
+      <c r="D47" s="27"/>
+      <c r="E47" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="G47" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="29">
+      <c r="A48" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
         <v>82</v>
       </c>
-      <c r="B48" s="29" t="str">
+      <c r="B48" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C48" s="29" t="str">
+      <c r="C48" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"create a poll with different vendors requesting to set up booths in the platform during the same durations")</f>
         <v>create a poll with different vendors requesting to set up booths in the platform during the same durations</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="G48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="29">
+      <c r="A49" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
         <v>83</v>
       </c>
-      <c r="B49" s="29" t="str">
+      <c r="B49" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C49" s="29" t="str">
+      <c r="C49" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"vote for a vendor to come and set up a booth in the platform based on the poll")</f>
         <v>vote for a vendor to come and set up a booth in the platform based on the poll</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29">
+      <c r="D49" s="19"/>
+      <c r="E49" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="19">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="G49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="29">
+      <c r="A50" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
         <v>85</v>
       </c>
-      <c r="B50" s="29" t="str">
+      <c r="B50" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C50" s="29" t="str">
+      <c r="C50" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cancel a gym session")</f>
         <v>cancel a gym session</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="G50" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="29">
+      <c r="A51" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
         <v>86</v>
       </c>
-      <c r="B51" s="29" t="str">
+      <c r="B51" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Events Office")</f>
         <v>Events Office</v>
       </c>
-      <c r="C51" s="29" t="str">
+      <c r="C51" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"edit a gym session")</f>
         <v>edit a gym session</v>
       </c>
-      <c r="D51" s="29" t="str">
+      <c r="D51" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"date, time, duration only can be edited")</f>
         <v>date, time, duration only can be edited</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="27">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="G51" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="J51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="29">
+      <c r="A52" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
         <v>87</v>
       </c>
-      <c r="B52" s="29" t="str">
+      <c r="B52" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Student/Staff/TA/Professor")</f>
         <v>Student/Staff/TA/Professor</v>
       </c>
-      <c r="C52" s="29" t="str">
+      <c r="C52" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"receive an email notification if a gym session I registered to attend was cancelled or edited")</f>
         <v>receive an email notification if a gym session I registered to attend was cancelled or edited</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="25">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="G52" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="J52" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H4 H26 H38">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NO">
+  <conditionalFormatting sqref="G6:G9 I6:I16 G12 G18:G19 G22:G25 G27:G28 G32:G34 G45:G47 G50:G52">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text=" Ali Ussama Youssef">
+      <formula>NOT(ISERROR(SEARCH((" Ali Ussama Youssef"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G9 I6:I16 G12 G18:G19 G22:G25 G27:G28 G32:G34 G45:G47 G50:G52">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Ahmed Mohamed Elsayed">
+      <formula>NOT(ISERROR(SEARCH(("Ahmed Mohamed Elsayed"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G9 I6:I16 G12 G18:G19 G22:G25 G27:G28 G32:G34 G45:G47 G50:G52">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Abdelhamid Sameh Abdelhamid">
+      <formula>NOT(ISERROR(SEARCH(("Abdelhamid Sameh Abdelhamid"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G9 I6:I16 G12 G18:G19 G22:G25 G27:G28 G32:G34 G45:G47 G50:G52">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Ahmed Hamdy Mostafa">
+      <formula>NOT(ISERROR(SEARCH(("Ahmed Hamdy Mostafa"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G9 I6:I16 G12 G18:G19 G22:G25 G27:G28 G32:G34 G45:G47 G50:G52">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Ahmed Khalid Mohamed">
+      <formula>NOT(ISERROR(SEARCH(("Ahmed Khalid Mohamed"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I52">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4 H26 H38">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Done">
+  <conditionalFormatting sqref="H2:I52">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH(("Done"),(H2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:G52">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Ali Ussama Youssef">
+      <formula>NOT(ISERROR(SEARCH(("Ali Ussama Youssef"),(A52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G9 I6:I16 G12 G18:G19 G22:G25 G27:G28 G32:G34 G45:G47 G50:G52 A52:F52">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Yehia Wael Raafat">
+      <formula>NOT(ISERROR(SEARCH(("Yehia Wael Raafat"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:G52">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Abdelhamid Sameh Abdelhamid">
+      <formula>NOT(ISERROR(SEARCH(("Abdelhamid Sameh Abdelhamid"),(A52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H8">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="maybe">
+      <formula>NOT(ISERROR(SEARCH(("maybe"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="maybe">
+      <formula>NOT(ISERROR(SEARCH(("maybe"),(H46))))</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
@@ -8370,1913 +8768,1913 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="32"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="31"/>
     </row>
     <row r="2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="D2" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="32"/>
     </row>
     <row r="3">
-      <c r="A3" s="35">
+      <c r="A3" s="34">
         <v>1.0</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D3" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D7" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="34">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="34">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="38">
+        <v>60.0</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="36">
+      <c r="E13" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="35">
         <v>3.0</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D14" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D15" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="38">
         <v>20.0</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="31"/>
+      <c r="B20" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="39">
         <v>3.0</v>
       </c>
-      <c r="D4" s="36">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="36">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="36">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="35">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="36">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="36">
-        <v>5.0</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="35">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="36">
-        <v>10.0</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="35">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="36">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="39">
-        <v>60.0</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="36">
-        <v>10.0</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="36">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="39">
+      <c r="D20" s="38">
         <v>20.0</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="32"/>
-      <c r="B20" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="D20" s="39">
-        <v>20.0</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="32"/>
+      <c r="E20" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="39">
+      <c r="A24" s="31"/>
+      <c r="B24" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="38">
         <v>100.0</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
+      <c r="A113" s="31"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
+      <c r="A114" s="31"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="32"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
+      <c r="A116" s="31"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
+      <c r="A118" s="31"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
+      <c r="A120" s="31"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
+      <c r="A121" s="31"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
+      <c r="A122" s="31"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="32"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="32"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="32"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="32"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
+      <c r="A131" s="31"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
+      <c r="A132" s="31"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
+      <c r="A134" s="31"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
+      <c r="A136" s="31"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
+      <c r="A137" s="31"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
+      <c r="A138" s="31"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="32"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
+      <c r="A141" s="31"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="32"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
+      <c r="A142" s="31"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="32"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="32"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
+      <c r="A145" s="31"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="32"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
+      <c r="A146" s="31"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="32"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="32"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="32"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
+      <c r="A150" s="31"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="32"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="32"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
+      <c r="A152" s="31"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="32"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
+      <c r="A154" s="31"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="32"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
+      <c r="A155" s="31"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="32"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
+      <c r="A156" s="31"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="32"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
+      <c r="A157" s="31"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="32"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
+      <c r="A158" s="31"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="32"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
+      <c r="A159" s="31"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="32"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="32"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
+      <c r="A160" s="31"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
+      <c r="A161" s="31"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="32"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
+      <c r="A162" s="31"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="31"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="32"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32"/>
+      <c r="A163" s="31"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
+      <c r="A164" s="31"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="32"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
+      <c r="A165" s="31"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="32"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
+      <c r="A167" s="31"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
+      <c r="A168" s="31"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="32"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
+      <c r="A169" s="31"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="32"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
+      <c r="A170" s="31"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="32"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
+      <c r="A171" s="31"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="32"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="32"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
+      <c r="A173" s="31"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="32"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
+      <c r="A174" s="31"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
+      <c r="A175" s="31"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
+      <c r="A176" s="31"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="32"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
+      <c r="A177" s="31"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="32"/>
+      <c r="A178" s="31"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="32"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="32"/>
+      <c r="A179" s="31"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="32"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="32"/>
+      <c r="A180" s="31"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="32"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="32"/>
+      <c r="A181" s="31"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
+      <c r="A182" s="31"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="32"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="32"/>
+      <c r="A183" s="31"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="32"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="32"/>
+      <c r="A184" s="31"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="32"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="32"/>
+      <c r="A185" s="31"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="32"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="32"/>
+      <c r="A186" s="31"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="32"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32"/>
+      <c r="A187" s="31"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="32"/>
-      <c r="B188" s="32"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="32"/>
+      <c r="A188" s="31"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="32"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
+      <c r="A189" s="31"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="32"/>
-      <c r="B190" s="32"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
+      <c r="A190" s="31"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="32"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
+      <c r="A191" s="31"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="32"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="32"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
+      <c r="A193" s="31"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="32"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
+      <c r="A194" s="31"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="32"/>
-      <c r="B195" s="32"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
+      <c r="A195" s="31"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="32"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
+      <c r="A196" s="31"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="32"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
+      <c r="A197" s="31"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="32"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
+      <c r="A198" s="31"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="32"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
+      <c r="A199" s="31"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="32"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
+      <c r="A200" s="31"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="31"/>
+      <c r="F200" s="31"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="32"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="32"/>
+      <c r="A202" s="31"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="31"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="32"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="32"/>
-      <c r="F203" s="32"/>
+      <c r="A203" s="31"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="31"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="32"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="32"/>
+      <c r="A204" s="31"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="31"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="32"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="32"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="32"/>
-      <c r="F205" s="32"/>
+      <c r="A205" s="31"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="31"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="32"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32"/>
+      <c r="A206" s="31"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="31"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="32"/>
-      <c r="B207" s="32"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="32"/>
-      <c r="E207" s="32"/>
-      <c r="F207" s="32"/>
+      <c r="A207" s="31"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="31"/>
+      <c r="D207" s="31"/>
+      <c r="E207" s="31"/>
+      <c r="F207" s="31"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="32"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
+      <c r="A208" s="31"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="31"/>
+      <c r="D208" s="31"/>
+      <c r="E208" s="31"/>
+      <c r="F208" s="31"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="32"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="32"/>
-      <c r="D209" s="32"/>
-      <c r="E209" s="32"/>
-      <c r="F209" s="32"/>
+      <c r="A209" s="31"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="31"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="32"/>
-      <c r="B210" s="32"/>
-      <c r="C210" s="32"/>
-      <c r="D210" s="32"/>
-      <c r="E210" s="32"/>
-      <c r="F210" s="32"/>
+      <c r="A210" s="31"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="31"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="32"/>
-      <c r="B211" s="32"/>
-      <c r="C211" s="32"/>
-      <c r="D211" s="32"/>
-      <c r="E211" s="32"/>
-      <c r="F211" s="32"/>
+      <c r="A211" s="31"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="32"/>
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32"/>
-      <c r="E212" s="32"/>
-      <c r="F212" s="32"/>
+      <c r="A212" s="31"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="31"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="32"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="32"/>
+      <c r="A213" s="31"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="32"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="32"/>
-      <c r="F214" s="32"/>
+      <c r="A214" s="31"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="31"/>
+      <c r="F214" s="31"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="32"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="32"/>
+      <c r="A215" s="31"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
+      <c r="F215" s="31"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="32"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="32"/>
+      <c r="A216" s="31"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="31"/>
+      <c r="D216" s="31"/>
+      <c r="E216" s="31"/>
+      <c r="F216" s="31"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="32"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
+      <c r="A217" s="31"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="32"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
+      <c r="A218" s="31"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="31"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="31"/>
+      <c r="F218" s="31"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="32"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32"/>
+      <c r="A219" s="31"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="31"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="32"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="32"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
+      <c r="A220" s="31"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="31"/>
+      <c r="F220" s="31"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="32"/>
-      <c r="B221" s="32"/>
-      <c r="C221" s="32"/>
-      <c r="D221" s="32"/>
-      <c r="E221" s="32"/>
-      <c r="F221" s="32"/>
+      <c r="A221" s="31"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="32"/>
-      <c r="B222" s="32"/>
-      <c r="C222" s="32"/>
-      <c r="D222" s="32"/>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
+      <c r="A222" s="31"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="31"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="32"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
+      <c r="A223" s="31"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="31"/>
+      <c r="E223" s="31"/>
+      <c r="F223" s="31"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="32"/>
-      <c r="B224" s="32"/>
-      <c r="C224" s="32"/>
-      <c r="D224" s="32"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
+      <c r="A224" s="31"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="31"/>
+      <c r="D224" s="31"/>
+      <c r="E224" s="31"/>
+      <c r="F224" s="31"/>
     </row>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
